--- a/空のプロセス17/e/output.xlsx
+++ b/空のプロセス17/e/output.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\y.ueda\Documents\UiPath\領収書\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\19023\Documents\UiPath\空のプロセス17\e\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,12 +15,154 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+  <si>
+    <t>領収書</t>
+    <rPh sb="0" eb="3">
+      <t>リョウシュウショ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>宛先</t>
+    <rPh sb="0" eb="2">
+      <t>アテサキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コンピュータ教育学院ビジネスカレッジ</t>
+    <rPh sb="6" eb="8">
+      <t>キョウイク</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ガクイン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TEL:</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FAX:</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>件名</t>
+    <rPh sb="0" eb="2">
+      <t>ケンメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>適用</t>
+    <rPh sb="0" eb="2">
+      <t>テキヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>型番</t>
+    <rPh sb="0" eb="1">
+      <t>カタ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>バン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>数量</t>
+    <rPh sb="0" eb="2">
+      <t>スウリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>単位</t>
+    <rPh sb="0" eb="2">
+      <t>タンイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>単価</t>
+    <rPh sb="0" eb="2">
+      <t>タンカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>備考</t>
+    <rPh sb="0" eb="2">
+      <t>ビコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>小計</t>
+    <rPh sb="0" eb="2">
+      <t>ショウケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>消費税</t>
+    <rPh sb="0" eb="3">
+      <t>ショウヒゼイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>合計</t>
+    <rPh sb="0" eb="2">
+      <t>ゴウケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>情報メディア学科2年</t>
+    <rPh sb="0" eb="2">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ガッカ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ネン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>領収書番号</t>
+    <rPh sb="0" eb="5">
+      <t>リョウシュウショバンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>金額</t>
+    <rPh sb="0" eb="2">
+      <t>キンガク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -50,7 +192,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -58,15 +200,51 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -348,12 +526,236 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:N23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
-  <sheetData/>
+  <cols>
+    <col min="7" max="7" width="15.375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="3">
+        <v>44242</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="E3" s="2"/>
+      <c r="F3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="3"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="E5" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="E6" s="2"/>
+      <c r="F6" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" s="7"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="E7" s="2"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="E8" s="2"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A12" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A14" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="A12:H12"/>
+  </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/空のプロセス17/e/output.xlsx
+++ b/空のプロセス17/e/output.xlsx
@@ -15,7 +15,6 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="29">
   <si>
     <t>領収書</t>
     <rPh sb="0" eb="3">
@@ -160,6 +159,46 @@
     <rPh sb="0" eb="2">
       <t>キンガク</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コンピュータ教育学院</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ナカムラ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>kamimura@nakano.com</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>個</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>iPhone X</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>A1531</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>電源アダプター</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HAC-001</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ライトニングケーブル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>A0001</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -553,15 +592,20 @@
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="3">
-        <v>44242</v>
+        <v>44229</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="B3" t="s">
+        <v>19</v>
+      </c>
       <c r="E3" s="2"/>
       <c r="F3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="3"/>
+      <c r="G3" s="3">
+        <v>21002</v>
+      </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
@@ -588,12 +632,16 @@
     <row r="7" spans="1:14" x14ac:dyDescent="0.4">
       <c r="E7" s="2"/>
       <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
+      <c r="G7" s="5" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.4">
       <c r="E8" s="2"/>
       <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
+      <c r="G8" s="5" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.4">
       <c r="E9" s="2"/>
@@ -655,62 +703,134 @@
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
+      <c r="B15" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" s="1">
+        <v>1</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F15" s="1">
+        <v>120000</v>
+      </c>
+      <c r="G15" s="1">
+        <v>120000</v>
+      </c>
       <c r="H15" s="1"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
+      <c r="B16" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" s="1">
+        <v>1</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F16" s="1">
+        <v>500</v>
+      </c>
+      <c r="G16" s="1">
+        <v>500</v>
+      </c>
       <c r="H16" s="1"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
+      <c r="B17" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D17" s="1">
+        <v>1</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F17" s="1">
+        <v>2000</v>
+      </c>
+      <c r="G17" s="1">
+        <v>2000</v>
+      </c>
       <c r="H17" s="1"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
+      <c r="B18" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" s="1">
+        <v>1</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F18" s="1">
+        <v>120000</v>
+      </c>
+      <c r="G18" s="1">
+        <v>120000</v>
+      </c>
       <c r="H18" s="1"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
+      <c r="B19" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" s="1">
+        <v>1</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F19" s="1">
+        <v>500</v>
+      </c>
+      <c r="G19" s="1">
+        <v>500</v>
+      </c>
       <c r="H19" s="1"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
+      <c r="B20" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D20" s="1">
+        <v>1</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F20" s="1">
+        <v>2000</v>
+      </c>
+      <c r="G20" s="1">
+        <v>2000</v>
+      </c>
       <c r="H20" s="1"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.4">
@@ -722,7 +842,9 @@
       <c r="F21" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G21" s="1"/>
+      <c r="G21" s="1">
+        <v>245000</v>
+      </c>
       <c r="H21" s="1"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.4">
@@ -734,7 +856,9 @@
       <c r="F22" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G22" s="1"/>
+      <c r="G22" s="1">
+        <v>24500</v>
+      </c>
       <c r="H22" s="1"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.4">
@@ -746,7 +870,9 @@
       <c r="F23" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G23" s="1"/>
+      <c r="G23" s="1">
+        <v>269500</v>
+      </c>
       <c r="H23" s="1"/>
     </row>
   </sheetData>

--- a/空のプロセス17/e/output.xlsx
+++ b/空のプロセス17/e/output.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\19023\Documents\UiPath\空のプロセス17\e\"/>
@@ -231,7 +231,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -241,16 +241,242 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
@@ -260,11 +486,8 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -279,11 +502,71 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -565,10 +848,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N23"/>
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:N24"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="J16" sqref="J16:J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -577,21 +861,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="3">
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="2">
         <v>44229</v>
       </c>
     </row>
@@ -599,11 +883,11 @@
       <c r="B3" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2" t="s">
+      <c r="E3" s="1"/>
+      <c r="F3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="3">
+      <c r="G3" s="2">
         <v>21002</v>
       </c>
     </row>
@@ -611,270 +895,272 @@
       <c r="A4" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="22"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="E6" s="2"/>
-      <c r="F6" s="7" t="s">
+      <c r="E6" s="1"/>
+      <c r="F6" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="G6" s="7"/>
+      <c r="G6" s="22"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="E7" s="2"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5" t="s">
+      <c r="E7" s="1"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="E8" s="2"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5" t="s">
+      <c r="E8" s="1"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="4" t="s">
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="4" t="s">
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
-      <c r="M12" s="2"/>
-      <c r="N12" s="2"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A14" s="1" t="s">
+      <c r="B12" s="21"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="21"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+    </row>
+    <row r="13" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="14" spans="1:14" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A14" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D14" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="E14" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="F14" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="G14" s="1" t="s">
+      <c r="G14" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="H14" s="1" t="s">
+      <c r="H14" s="14" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1" t="s">
+    <row r="15" spans="1:14" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="9"/>
+      <c r="B15" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="D15" s="1">
+      <c r="D15" s="10">
         <v>1</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="E15" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="F15" s="1">
+      <c r="F15" s="10">
         <v>120000</v>
       </c>
-      <c r="G15" s="1">
+      <c r="G15" s="10">
         <v>120000</v>
       </c>
-      <c r="H15" s="1"/>
+      <c r="H15" s="11"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1" t="s">
+      <c r="A16" s="7"/>
+      <c r="B16" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="D16" s="1">
+      <c r="D16" s="6">
         <v>1</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="E16" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="F16" s="1">
+      <c r="F16" s="6">
         <v>500</v>
       </c>
-      <c r="G16" s="1">
+      <c r="G16" s="6">
         <v>500</v>
       </c>
-      <c r="H16" s="1"/>
+      <c r="H16" s="8"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1" t="s">
+      <c r="A17" s="7"/>
+      <c r="B17" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="D17" s="1">
+      <c r="D17" s="6">
         <v>1</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="E17" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="F17" s="1">
+      <c r="F17" s="6">
         <v>2000</v>
       </c>
-      <c r="G17" s="1">
+      <c r="G17" s="6">
         <v>2000</v>
       </c>
-      <c r="H17" s="1"/>
+      <c r="H17" s="8"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1" t="s">
+      <c r="A18" s="7"/>
+      <c r="B18" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C18" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="D18" s="1">
+      <c r="D18" s="6">
         <v>1</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="E18" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="F18" s="1">
+      <c r="F18" s="6">
         <v>120000</v>
       </c>
-      <c r="G18" s="1">
+      <c r="G18" s="6">
         <v>120000</v>
       </c>
-      <c r="H18" s="1"/>
+      <c r="H18" s="8"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1" t="s">
+      <c r="A19" s="7"/>
+      <c r="B19" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C19" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="D19" s="1">
+      <c r="D19" s="6">
         <v>1</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="E19" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="1">
+      <c r="F19" s="6">
         <v>500</v>
       </c>
-      <c r="G19" s="1">
+      <c r="G19" s="6">
         <v>500</v>
       </c>
-      <c r="H19" s="1"/>
+      <c r="H19" s="8"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1" t="s">
+      <c r="A20" s="7"/>
+      <c r="B20" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C20" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="D20" s="1">
+      <c r="D20" s="6">
         <v>1</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="E20" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="F20" s="1">
+      <c r="F20" s="6">
         <v>2000</v>
       </c>
-      <c r="G20" s="1">
+      <c r="G20" s="20">
         <v>2000</v>
       </c>
-      <c r="H20" s="1"/>
+      <c r="H20" s="8"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1" t="s">
+      <c r="A21" s="16"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="G21" s="1">
+      <c r="G21" s="20">
         <v>245000</v>
       </c>
-      <c r="H21" s="1"/>
+      <c r="H21" s="18"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1" t="s">
+      <c r="A22" s="24"/>
+      <c r="B22" s="25"/>
+      <c r="C22" s="25"/>
+      <c r="D22" s="25"/>
+      <c r="E22" s="25"/>
+      <c r="F22" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="G22" s="1">
+      <c r="G22" s="6">
         <v>24500</v>
       </c>
-      <c r="H22" s="1"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1" t="s">
+      <c r="H22" s="26"/>
+    </row>
+    <row r="23" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A23" s="17"/>
+      <c r="B23" s="15"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="G23" s="1">
+      <c r="G23" s="23">
         <v>269500</v>
       </c>
-      <c r="H23" s="1"/>
-    </row>
+      <c r="H23" s="19"/>
+    </row>
+    <row r="24" spans="1:8" ht="19.5" thickTop="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A1:H1"/>
